--- a/solver-based-solution/removed-unsatistied-constraints-ALM.xlsx
+++ b/solver-based-solution/removed-unsatistied-constraints-ALM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="12945" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12948" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">Sheet1!$H$38:$H$45</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">Sheet1!$C$45</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">Sheet1!$L$16:$L$23</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -67,9 +68,8 @@
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -86,7 +86,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -94,7 +94,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Total revenues must equal the total costs for bucket 1</t>
@@ -108,7 +108,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -116,7 +116,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Total revenues must equal the total costs for bucket 1 and 2</t>
@@ -130,7 +130,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -138,7 +138,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Total revenues must equal the total costs for bucket 1, 2, and 3</t>
@@ -152,7 +152,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -160,7 +160,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Total revenues must equal the total costs for bucket 1, 2, 3 and 4</t>
@@ -174,7 +174,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -182,7 +182,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Total revenues must equal the total costs for bucket 1, 2, 3, 4, and 5</t>
@@ -196,7 +196,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -204,7 +204,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Total revenues must equal the total costs for bucket 1, 2, 3, 4, 5, and 6</t>
@@ -218,7 +218,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -226,7 +226,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Total revenues must equal the total costs for bucket 1, 2, 3, 4, 5, 6, and 7</t>
@@ -240,7 +240,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -248,7 +248,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Government Securities</t>
@@ -262,7 +262,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -270,7 +270,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Debentures and bonds</t>
@@ -284,7 +284,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -292,7 +292,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Total revenues must equal the total costs for bucket 1, 2,3, 4, 5, 6, 7, and 8</t>
@@ -306,7 +306,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -314,7 +314,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Right hand side of the (in)equalities</t>
@@ -328,7 +328,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -336,7 +336,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Advances in each bucket should exceed  5% of total term advances in 8 all eight buckets. </t>
@@ -350,7 +350,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -358,9 +358,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+Warning: This constraint is removed from Solver!
 Balance with central bank in each bucket should exceed 5% of total assets in all eight buckets</t>
         </r>
       </text>
@@ -372,7 +373,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -380,7 +381,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Balance with central bank in bucket 8 should exceed 5% of total balances with central bank in all eight buckets</t>
@@ -394,7 +395,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -402,7 +403,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Investment in government securities in bucket 8 should exceed 5% of total investment in government securities in all eight buckets. </t>
@@ -416,7 +417,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -424,7 +425,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Investment in debentures and bonds in bucket 8 should exceed 5% of total investment in debentures and bonds in all eight buckets</t>
@@ -438,7 +439,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -446,7 +447,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The total investment in assets in government securities in all buckets should exceed 24% of the total deman deposits, saving deposit, term deposits in all buckets</t>
@@ -460,7 +461,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -468,7 +469,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The total investment in assets in each bucket should be less than the total demand deposits, savings deposits, and term deposits in all buckets</t>
@@ -482,7 +483,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -490,10 +491,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-phatvo:
+Warning: This constraint is removed from Solver!
 Borrowings in bucket 1 should exceed 80% of total borrowings 8 in all buckets</t>
         </r>
       </text>
@@ -505,7 +506,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>phatvo:</t>
         </r>
@@ -513,10 +514,9 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-phatvo:
 Borrowings in each of the buckets 6, 7, and 8 should exceed 5% of 8 total borrowings in all buckets.</t>
         </r>
       </text>
@@ -688,14 +688,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -722,19 +716,19 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -746,155 +740,29 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -919,182 +787,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1154,247 +848,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1407,9 +865,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1418,18 +873,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="21" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1445,100 +945,13 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="21" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="23" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="23" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1608,8 +1021,8 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
-      <color rgb="00FFC7FF"/>
-      <color rgb="00FFC7CD"/>
+      <color rgb="FFFFC7FF"/>
+      <color rgb="FFFFC7CD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1621,7 +1034,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1635,7 +1048,7 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1">
@@ -1918,49 +1331,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AMJ1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.552380952381" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.2190476190476" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7809523809524" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5714285714286" style="1"/>
-    <col min="7" max="7" width="8.88571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1"/>
+    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="1" customWidth="1"/>
-    <col min="9" max="11" width="11.552380952381" style="1"/>
-    <col min="12" max="12" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="13" max="15" width="11.552380952381" style="1"/>
-    <col min="16" max="16" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="17" max="1025" width="11.552380952381" style="1"/>
+    <col min="9" max="11" width="11.5546875" style="1"/>
+    <col min="12" max="12" width="12.33203125" style="1" customWidth="1"/>
+    <col min="13" max="15" width="11.5546875" style="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="1025" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" spans="1:11">
+    <row r="1" spans="1:1024" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
       <c r="G1"/>
@@ -1973,14 +1386,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="11"/>
+    <row r="2" spans="1:1024">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="25"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="1">
@@ -1992,26 +1405,26 @@
         <v>857.5</v>
       </c>
     </row>
-    <row r="3" spans="1:1024">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:1024" ht="14.4">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>12</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <f>B38</f>
         <v>228</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="1">
@@ -2027,26 +1440,26 @@
         <v>2349.75</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:1024" ht="14.4">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>10</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>13</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <f t="shared" ref="E4:E10" si="1">B39</f>
         <v>217</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="1">
@@ -2058,26 +1471,26 @@
         <v>1304.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:1024" ht="14.4">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>18</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <f t="shared" si="1"/>
         <v>212</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -2089,57 +1502,57 @@
         <v>1312.75</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:1024" ht="14.4">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>10</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>17</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <f t="shared" si="1"/>
         <v>213</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>2089.91176470588</v>
+        <v>2089.9117647058802</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
         <v>1330</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:1024" ht="14.4">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>10</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="1">
@@ -2151,82 +1564,82 @@
         <v>1992.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:1024" ht="14.4">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>10</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>10</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>2375</v>
+        <v>2375.0000000000027</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
         <v>2105</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:1024" ht="14.4">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>10</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>2498.5</v>
+        <v>2498.5000000000032</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
         <v>2225</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:1024" ht="14.4">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>10</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>10</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>10</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
@@ -2235,102 +1648,102 @@
       <c r="J10"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="7:11">
+    <row r="11" spans="1:1024">
       <c r="G11"/>
       <c r="H11"/>
       <c r="J11"/>
       <c r="K11"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1" spans="1:11">
+    <row r="12" spans="1:1024" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J12"/>
-      <c r="K12" s="17">
+      <c r="K12" s="9">
         <f>SUM(J2:J9)-SUM(K2:K9)</f>
-        <v>2957.91176470588</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="11"/>
+        <v>2957.9117647058883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1024">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="25"/>
       <c r="H13"/>
     </row>
-    <row r="14" ht="20.25" spans="1:9">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:1024" ht="17.399999999999999">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
         <v>3.5</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>3.5</v>
       </c>
       <c r="E14" s="1">
         <v>3.5</v>
       </c>
       <c r="G14"/>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:1024">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
         <v>3.5</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>4.25</v>
       </c>
       <c r="E15" s="1">
         <v>3.5</v>
       </c>
       <c r="G15"/>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:1024">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
         <v>3.5</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>5.75</v>
       </c>
       <c r="E16" s="1">
@@ -2338,11 +1751,11 @@
       </c>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="10"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="1">
         <f>SUM(C38:G38)-SUM(B3:E3)</f>
         <v>0</v>
@@ -2353,16 +1766,16 @@
       <c r="Q16"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
         <v>3.5</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>6.25</v>
       </c>
       <c r="E17" s="1">
@@ -2370,30 +1783,30 @@
       </c>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="1">
         <f t="shared" ref="L17:L23" si="3">SUM(C39:G39)-SUM(B4:E4)+L16</f>
         <v>0</v>
       </c>
-      <c r="M17" s="29"/>
+      <c r="M17" s="20"/>
       <c r="N17"/>
       <c r="O17"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
         <v>3.5</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>8.5</v>
       </c>
       <c r="E18" s="1">
@@ -2401,30 +1814,30 @@
       </c>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M18" s="29"/>
+      <c r="M18" s="20"/>
       <c r="N18"/>
       <c r="O18"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
         <v>3.5</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>8.75</v>
       </c>
       <c r="E19" s="1">
@@ -2432,30 +1845,30 @@
       </c>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M19" s="29"/>
+      <c r="M19" s="20"/>
       <c r="N19"/>
       <c r="O19"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
         <v>3.5</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>9</v>
       </c>
       <c r="E20" s="1">
@@ -2463,30 +1876,30 @@
       </c>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="29"/>
+        <v>-2.8421709430404007E-13</v>
+      </c>
+      <c r="M20" s="20"/>
       <c r="N20"/>
       <c r="O20"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
         <v>3.5</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>10</v>
       </c>
       <c r="E21" s="1">
@@ -2494,97 +1907,97 @@
       </c>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="29"/>
+        <v>-2.8421709430404007E-13</v>
+      </c>
+      <c r="M21" s="20"/>
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="7:15">
+    <row r="22" spans="1:15">
       <c r="G22"/>
       <c r="H22"/>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="1">
         <f t="shared" si="3"/>
-        <v>-1.70530256582424e-13</v>
-      </c>
-      <c r="M22" s="29"/>
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="M22" s="20"/>
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1" spans="1:15">
+    <row r="23" spans="1:15" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="23" t="s">
         <v>35</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
       <c r="L23" s="1">
         <f t="shared" si="3"/>
-        <v>-1.70530256582424e-13</v>
-      </c>
-      <c r="M23" s="29"/>
+        <v>3.4106051316484809E-13</v>
+      </c>
+      <c r="M23" s="20"/>
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:15">
       <c r="A24"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="3"/>
-      <c r="I24" s="16" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="23"/>
+      <c r="I24" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:15">
+      <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>3.5</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>3.5</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>3.5</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>3.5</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>5</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -2594,403 +2007,403 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:15">
+      <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>3.5</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>4.25</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>3.5</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>3.5</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>5</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="11">
         <v>2</v>
       </c>
       <c r="J26" s="1">
         <f>0.05*SUM(G38:G45)</f>
-        <v>70.1764705882353</v>
+        <v>70.176470588235276</v>
       </c>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:15">
+      <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>5.5</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>5.75</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>5.5</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>5.5</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>6.5</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="12">
         <v>3</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="13">
         <f>0.05*SUM(C38:G45)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" ht="12.75" customHeight="1" spans="1:15">
-      <c r="A28" s="4" t="s">
+        <v>100.00000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>5.5</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>6.25</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>5.5</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>5.5</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>6.5</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="14">
         <v>4</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="15">
         <f>0.05*SUM(C38:C45)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>5.5</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>8.5</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>5.5</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>5.5</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>8</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="17">
         <v>5</v>
       </c>
       <c r="J29" s="1">
         <f>0.05*SUM(E38:E45)</f>
         <v>3</v>
       </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1" spans="1:15">
-      <c r="A30" s="4" t="s">
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+    </row>
+    <row r="30" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>6</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>8.75</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>8.5</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>8.5</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>9</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="17">
         <v>6</v>
       </c>
       <c r="J30" s="1">
         <f>0.05*SUM(F38:F45)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>6.5</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>9.5</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>9</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>9</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>9.5</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="11">
         <v>7</v>
       </c>
       <c r="J31" s="1">
         <f>0.24*SUM(B3:D10)</f>
         <v>60</v>
       </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1" spans="1:15">
-      <c r="A32" s="4" t="s">
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+    </row>
+    <row r="32" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>7</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>10</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>9.5</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>9.5</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>10</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="17">
         <v>8</v>
       </c>
       <c r="J32" s="1">
         <f>SUM(B3:D10)</f>
         <v>250</v>
       </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-    </row>
-    <row r="33" spans="9:15">
-      <c r="I33" s="27">
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="1:15" ht="14.4">
+      <c r="I33" s="18">
         <v>9</v>
       </c>
-      <c r="J33" s="28">
+      <c r="J33" s="19">
         <f>0.8*SUM(E3:E10)</f>
         <v>1400</v>
       </c>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1" spans="1:15">
-      <c r="A34" s="7" t="s">
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A34" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="11">
         <v>10</v>
       </c>
       <c r="J34" s="1">
         <f>0.05*SUM(E3:E10)</f>
         <v>87.5</v>
       </c>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1" spans="1:15">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="4" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+    </row>
+    <row r="37" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.4">
+      <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="6">
         <v>228</v>
       </c>
-      <c r="C38" s="9">
-        <v>0</v>
-      </c>
-      <c r="D38" s="9">
-        <v>0</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
         <v>250</v>
       </c>
       <c r="H38" s="1">
         <f>SUM(C38:G38)</f>
         <v>250</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="4" t="s">
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.4">
+      <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="6">
         <v>217</v>
       </c>
-      <c r="C39" s="9">
-        <v>0</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
         <v>250</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" ref="H39:H45" si="4">SUM(C39:G39)</f>
         <v>250</v>
       </c>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="4" t="s">
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.4">
+      <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="6">
         <v>212</v>
       </c>
-      <c r="C40" s="9">
-        <v>0</v>
-      </c>
-      <c r="D40" s="9">
-        <v>0</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
         <v>250</v>
       </c>
       <c r="H40" s="1">
@@ -2998,26 +2411,26 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:15" ht="14.4">
+      <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="6">
         <v>213</v>
       </c>
-      <c r="C41" s="9">
-        <v>0</v>
-      </c>
-      <c r="D41" s="9">
-        <v>0</v>
-      </c>
-      <c r="E41" s="9">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9">
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
         <v>250</v>
       </c>
       <c r="H41" s="1">
@@ -3025,53 +2438,53 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:15" ht="14.4">
+      <c r="A42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="6">
         <v>220</v>
       </c>
-      <c r="C42" s="9">
-        <v>0</v>
-      </c>
-      <c r="D42" s="9">
-        <v>179.823529411765</v>
-      </c>
-      <c r="E42" s="9">
-        <v>0</v>
-      </c>
-      <c r="F42" s="9">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9">
-        <v>70.1764705882347</v>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>179.82352941176501</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>70.176470588234693</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="4" t="s">
+        <v>249.99999999999972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="14.4">
+      <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="6">
         <v>220</v>
       </c>
-      <c r="C43" s="9">
-        <v>0</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0</v>
-      </c>
-      <c r="E43" s="9">
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
         <v>57</v>
       </c>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
         <v>193</v>
       </c>
       <c r="H43" s="1">
@@ -3079,62 +2492,62 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:15" ht="14.4">
+      <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="6">
         <v>220</v>
       </c>
-      <c r="C44" s="9">
-        <v>0</v>
-      </c>
-      <c r="D44" s="9">
-        <v>179.823529411765</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0</v>
-      </c>
-      <c r="F44" s="9">
-        <v>0</v>
-      </c>
-      <c r="G44" s="9">
-        <v>70.1764705882353</v>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>179.82352941176501</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>70.176470588235304</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="4" t="s">
+        <v>250.00000000000031</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="14.4">
+      <c r="A45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="6">
         <v>220</v>
       </c>
-      <c r="C45" s="9">
-        <v>0</v>
-      </c>
-      <c r="D45" s="9">
-        <v>176.823529411765</v>
-      </c>
-      <c r="E45" s="9">
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>176.82352941176501</v>
+      </c>
+      <c r="E45" s="6">
         <v>3</v>
       </c>
-      <c r="F45" s="9">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
-        <v>70.1764705882353</v>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>70.176470588235304</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="10" t="s">
+        <v>250.00000000000031</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E46" s="1">
@@ -3142,82 +2555,82 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" ht="12" spans="1:3">
+    <row r="47" spans="1:15">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
     </row>
-    <row r="48" ht="12" spans="1:3">
+    <row r="48" spans="1:15">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
     </row>
-    <row r="49" ht="12" spans="1:3">
+    <row r="49" spans="1:3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
     </row>
-    <row r="50" ht="12" spans="1:3">
+    <row r="50" spans="1:3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
     </row>
-    <row r="51" ht="12" spans="1:3">
+    <row r="51" spans="1:3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
     </row>
-    <row r="52" ht="12" spans="1:3">
+    <row r="52" spans="1:3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
     </row>
-    <row r="53" ht="12" spans="1:3">
+    <row r="53" spans="1:3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" ht="12" spans="1:3">
+    <row r="54" spans="1:3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
     </row>
-    <row r="55" ht="12" spans="1:3">
+    <row r="55" spans="1:3">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
     </row>
-    <row r="56" ht="12" spans="1:3">
+    <row r="56" spans="1:3">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" ht="12" spans="1:3">
+    <row r="57" spans="1:3">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
     </row>
-    <row r="58" ht="12" spans="1:3">
+    <row r="58" spans="1:3">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
     </row>
-    <row r="59" ht="12" spans="1:3">
+    <row r="59" spans="1:3">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
     </row>
-    <row r="60" ht="12" spans="1:3">
+    <row r="60" spans="1:3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
     </row>
-    <row r="61" ht="12" spans="1:3">
+    <row r="61" spans="1:3">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
     </row>
-    <row r="62" ht="12" spans="1:3">
+    <row r="62" spans="1:3">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -3234,11 +2647,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F34:F37"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:K23"/>
@@ -3255,21 +2670,19 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
   </mergeCells>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>